--- a/src/main/webapp/files/学生收费信息导入模板.xlsx
+++ b/src/main/webapp/files/学生收费信息导入模板.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21727"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22430"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\github\ChargeServer\src\main\webapp\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7493FEA5-C495-4103-A47D-D629A90B04EF}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC5078EF-295D-416B-B11C-C023BC610438}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>学号</t>
   </si>
@@ -39,6 +39,10 @@
   </si>
   <si>
     <t>应缴费日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>缴费系数</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -413,8 +417,8 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="7.08984375" customWidth="1"/>
-    <col min="3" max="3" width="9.08984375" customWidth="1"/>
-    <col min="4" max="4" width="11.6328125" customWidth="1"/>
+    <col min="3" max="3" width="9.26953125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.36328125" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="11" customWidth="1"/>
     <col min="7" max="7" width="12.7265625" customWidth="1"/>
     <col min="8" max="8" width="36.08984375" customWidth="1"/>
@@ -434,7 +438,9 @@
       <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1"/>
+      <c r="E1" s="3" t="s">
+        <v>4</v>
+      </c>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
